--- a/BillOfMaterials/Bill of Materials.xlsx
+++ b/BillOfMaterials/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\University\RobotDesign2025\BillOfMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9D6441-8C65-41E6-A5DF-9F979CA0BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ECE86C-8F07-43B6-8415-6AA8412D5288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01B888A3-36D2-4E69-9C00-EF338EDE047A}"/>
   </bookViews>
@@ -425,6 +425,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -434,8 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F8DF3B-37BB-44CB-A50B-2E811FFA5154}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,13 +783,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -920,7 +920,7 @@
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>2.37</v>
       </c>
       <c r="C9" s="1">
@@ -938,14 +938,14 @@
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>3.65</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f>B10*C10</f>
+        <f t="shared" ref="D10:D17" si="1">B10*C10</f>
         <v>3.65</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -956,14 +956,14 @@
       <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>9.61</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <f>B11*C11</f>
+        <f t="shared" si="1"/>
         <v>9.61</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -974,14 +974,14 @@
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>1.58</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <f>B12*C12</f>
+        <f t="shared" si="1"/>
         <v>1.58</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -992,14 +992,14 @@
       <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>1.75</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <f>B13*C13</f>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1010,14 +1010,14 @@
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>6.53</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <f>B14*C14</f>
+        <f t="shared" si="1"/>
         <v>6.53</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1028,14 +1028,14 @@
       <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>0.74</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <f>B15*C15</f>
+        <f t="shared" si="1"/>
         <v>1.48</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -1046,14 +1046,14 @@
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <f>B16*C16</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -1064,14 +1064,14 @@
       <c r="A17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>12.27</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <f>B17*C17</f>
+        <f t="shared" si="1"/>
         <v>12.27</v>
       </c>
       <c r="E17" s="15"/>
@@ -1084,12 +1084,12 @@
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D19" s="4">
         <f>SUM(D3:D18)</f>
